--- a/参考文档/2017国民经济行业分类标准/2017国民经济行业分类（A类）.xlsx
+++ b/参考文档/2017国民经济行业分类标准/2017国民经济行业分类（A类）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\git\diandianbangnong\diandianCrawling\2017国民经济行业分类（A类）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\workspace\Pyspace\diandianCrawling\参考文档\2017国民经济行业分类标准\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
@@ -2541,7 +2541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
@@ -2796,10 +2796,10 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2941,7 +2941,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3205,20 +3205,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
